--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_14.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_14.xlsx
@@ -483,109 +483,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3506493506493507</v>
+        <v>0.2392241379310345</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(70.519024, 75.720294)]</t>
+          <t>[(5.20815, 11.03585)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[(57.48, 64.58)]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1094164456233422</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.413696, 11.072593)]</t>
+          <t>[(44.16, 48.16)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[(0.24, 5.08)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1261904761904762</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['E', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.359, 13.688)]</t>
+          <t>[(75.355124, 80.742154)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[(26.48873, 32.328548)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -594,35 +602,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1422413793103448</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.32, 13.4)]</t>
+          <t>[(16.192174, 27.488682)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(58.91672, 63.328512)]</t>
+          <t>[(35.04, 40.71)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -631,76 +639,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1712473572938689</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.586235, 28.578526)]</t>
+          <t>[(21.76, 27.24)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[(60.42, 64.92)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1291208791208791</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>[['Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>[['E', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.651995, 24.735623)]</t>
+          <t>[(116.69, 119.66)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32)]</t>
+          <t>[(0.866546, 11.872804)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -709,35 +717,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1102453580901857</v>
+        <v>0.1230195712954334</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.6, 8.74)]</t>
+          <t>[(9.156734, 13.057687)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.84, 17.68)]</t>
+          <t>[(142.379117, 149.240614)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -746,72 +754,76 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.08002602472348731</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053)]</t>
+          <t>[(15.3, 19.72)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(24.28, 44.36)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09685230024213075</v>
+        <v>0.06166943521594684</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(68.54, 79.0)]</t>
+          <t>[(0.497838, 5.89263)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07)]</t>
+          <t>[(59.508331, 64.685555)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -820,80 +832,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1177257525083612</v>
+        <v>0.1843137254901961</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B', 'E', 'E', 'B']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[(14.402743, 19.871043)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[(1.274255, 7.505864)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.1792207792207792</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'D']]</t>
+          <t>[['Ab', 'Eb', 'Bb/3'], ['Bb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'A']]</t>
+          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.51975, 39.201655)]</t>
+          <t>[(25.942, 29.102), (10.286, 15.006)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(56.111043, 71.192403)]</t>
+          <t>[(15.298925, 24.401147), (28.800769, 40.713165)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -902,35 +910,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06260869565217392</v>
+        <v>0.08233638282899367</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab:maj6', 'Bb:7', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['G:7', 'C', 'C/7'], ['A:min7', 'D:7', 'G:7'], ['D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79)]</t>
+          <t>[(64.32, 68.27), (52.5, 56.45), (23.91, 25.87)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[(12.318208, 18.355396), (115.728276, 124.366099), (118.584331, 127.280204)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -939,76 +947,76 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08660785886126704</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'G:maj', 'D:maj'], ['G:maj', 'D:maj', 'A/3'], ['G:maj', 'D:maj', 'C:maj'], ['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E'], ['E', 'E', 'B'], ['E', 'B', 'A'], ['A', 'B', 'E']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(56.816, 61.257), (44.656, 50.926), (32.356, 37.551), (12.446, 16.277)]</t>
+          <t>[(117.54, 122.7)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874), (12.672857, 20.660521), (0.440395, 6.507959), (44.310045, 50.196303)]</t>
+          <t>[(129.38, 134.74)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0484375</v>
+        <v>0.2701149425287356</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:7'], ['C', 'C', 'D:7'], ['C', 'G:7', 'C']]</t>
+          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'D:7/C'], ['C', 'C', 'D:7/C'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.41, 37.0), (5.2, 8.59), (21.17, 23.45)]</t>
+          <t>[(7.96, 21.56)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(282.48, 288.7), (244.94, 252.62), (253.84, 257.6)]</t>
+          <t>[(25.64, 55.14)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1017,80 +1025,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07307692307692308</v>
+        <v>0.1875</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[(9.162102, 17.463236)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[(0.421247, 7.703786)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4875</v>
+        <v>0.02135157545605307</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C:7', 'C:min7', 'F:7']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D:7', 'D:min7', 'G:7']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[(19.63, 22.36)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
+          <t>[(26.28, 30.35)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_14.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,503 +488,576 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1113122171945701</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06787330316742082</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.16, 48.16)]</t>
+          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.24, 5.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:22.370000', '0:00:40.370000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:22.770000', '0:00:28.380000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1644736842105263</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_225</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1098901098901099</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B']]</t>
+          <t>[['F#:7', 'G:(3,5)', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['E:7', 'F', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.48873, 32.328548)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:05.640000', '0:01:22.300000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:56.350000', '0:01:03.977000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1422413793103448</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7', 'A']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1871794871794872</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682)]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.04, 40.71)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:03.802834', '0:00:06.531178')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.76, 27.24)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(60.42, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(116.69, 119.66)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.866546, 11.872804)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230195712954334</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.156734, 13.057687)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(142.379117, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(24.28, 44.36)]</t>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06166943521594684</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.497838, 5.89263)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1843137254901961</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.402743, 19.871043)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.274255, 7.505864)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1792207792207792</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb', 'Bb/3'], ['Bb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>isophonics_208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4395604395604396</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
+          <t>[['E', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(25.942, 29.102), (10.286, 15.006)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(15.298925, 24.401147), (28.800769, 40.713165)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:28.857891', '0:02:36.114126')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:04.605000', '0:00:16.261000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08233638282899367</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab:maj6', 'Bb:7', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['A:min7', 'D:7', 'G:7'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (52.5, 56.45), (23.91, 25.87)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396), (115.728276, 124.366099), (118.584331, 127.280204)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(129.38, 134.74)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -988,113 +1066,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.96, 21.56)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(25.64, 55.14)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>jaah_8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaah_22</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7606635071090048</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236)]</t>
+          <t>[['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6', 'D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7', 'D:min7', 'G:min7', 'C:min7', 'F:7', 'Bb:maj6', 'Eb:maj6', 'E:dim7', 'Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.421247, 7.703786)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:59.490000', '0:02:05.030000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:02.390000', '0:01:06.740000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_51</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02135157545605307</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:min7', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'D:min7', 'G:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.63, 22.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.28, 30.35)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
